--- a/LuanNoBoc.xlsx
+++ b/LuanNoBoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0719978D-B3DF-4C74-83C8-30267E70E781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDB71C4-F7C7-472E-BF08-2EECA3F1CBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7622" uniqueCount="3734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7676" uniqueCount="3761">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -11227,6 +11227,87 @@
   </si>
   <si>
     <t>Thai Phụ tọa thủ tại Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Song Hao Quyền Lộc Kiếp Hoả</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng Xương Khúc Khôi Việt Tả Hữu Khoa Quyền Lộc Long</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng Tả Hữu Khoa Quyền Lộc Long Phượng</t>
+  </si>
+  <si>
+    <t>Tử Khúc Phá Dương Đà</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương gặp Xương Khúc Tả Hữu</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương Khoa Tả Hữu Quang Quý Quan Phúc</t>
+  </si>
+  <si>
+    <t>Sát Quyền</t>
+  </si>
+  <si>
+    <t>Lộc Mã</t>
+  </si>
+  <si>
+    <t>Kiếp Hư Hao Quyền</t>
+  </si>
+  <si>
+    <t>Tuế Hổ Phù Xương Khúc</t>
+  </si>
+  <si>
+    <t>Xương Khúc Tấu Long Phượng</t>
+  </si>
+  <si>
+    <t>Đào Hồng Riêu Tấu Cơ Vũ</t>
+  </si>
+  <si>
+    <t>Binh Hình Tướng Ấn</t>
+  </si>
+  <si>
+    <t>Hổ Tấu</t>
+  </si>
+  <si>
+    <t>Hình Riêu Y</t>
+  </si>
+  <si>
+    <t>Mã Hỏa Linh</t>
+  </si>
+  <si>
+    <t>Thai Tọa Hồng Đào</t>
+  </si>
+  <si>
+    <t>Tả Hữu Không Kiếp</t>
+  </si>
+  <si>
+    <t>Tả Hữu Binh Tướng</t>
+  </si>
+  <si>
+    <t>Đào Quyền</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Cái Hữu</t>
+  </si>
+  <si>
+    <t>Quan Phúc Quang Tấu</t>
+  </si>
+  <si>
+    <t>Đào Hồng Xương Khúc</t>
+  </si>
+  <si>
+    <t>Đào Tử Phủ</t>
+  </si>
+  <si>
+    <t>Hổ Kình Sát</t>
+  </si>
+  <si>
+    <t>Hổ Tang Kiếp</t>
+  </si>
+  <si>
+    <t>Hổ Tang Không Kiếp</t>
   </si>
 </sst>
 </file>
@@ -11268,7 +11349,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11765,10 +11856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B3812"/>
+  <dimension ref="A1:B3840"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1652" workbookViewId="0">
-      <selection activeCell="Q1659" sqref="Q1659"/>
+    <sheetView tabSelected="1" topLeftCell="A3836" workbookViewId="0">
+      <selection activeCell="D3830" sqref="D3830"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42264,55 +42355,274 @@
         <v>3612</v>
       </c>
     </row>
+    <row r="3814" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3814" t="s">
+        <v>3734</v>
+      </c>
+      <c r="B3814" t="s">
+        <v>3734</v>
+      </c>
+    </row>
+    <row r="3815" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3815" t="s">
+        <v>3735</v>
+      </c>
+      <c r="B3815" t="s">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="3816" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3816" t="s">
+        <v>3736</v>
+      </c>
+      <c r="B3816" t="s">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="3817" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3817" t="s">
+        <v>3737</v>
+      </c>
+      <c r="B3817" t="s">
+        <v>3737</v>
+      </c>
+    </row>
+    <row r="3818" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3818" t="s">
+        <v>3738</v>
+      </c>
+      <c r="B3818" t="s">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="3819" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3819" t="s">
+        <v>3739</v>
+      </c>
+      <c r="B3819" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="3820" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3820" t="s">
+        <v>3740</v>
+      </c>
+      <c r="B3820" t="s">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="3821" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3821" t="s">
+        <v>3741</v>
+      </c>
+      <c r="B3821" t="s">
+        <v>3741</v>
+      </c>
+    </row>
+    <row r="3822" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3822" t="s">
+        <v>3742</v>
+      </c>
+      <c r="B3822" t="s">
+        <v>3742</v>
+      </c>
+    </row>
+    <row r="3823" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3823" t="s">
+        <v>3743</v>
+      </c>
+      <c r="B3823" t="s">
+        <v>3743</v>
+      </c>
+    </row>
+    <row r="3824" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3824" t="s">
+        <v>3744</v>
+      </c>
+      <c r="B3824" t="s">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="3825" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3825" t="s">
+        <v>3745</v>
+      </c>
+      <c r="B3825" t="s">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="3826" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3826" t="s">
+        <v>3746</v>
+      </c>
+      <c r="B3826" t="s">
+        <v>3746</v>
+      </c>
+    </row>
+    <row r="3827" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3827" t="s">
+        <v>3747</v>
+      </c>
+      <c r="B3827" t="s">
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="3828" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3828" t="s">
+        <v>3748</v>
+      </c>
+      <c r="B3828" t="s">
+        <v>3748</v>
+      </c>
+    </row>
+    <row r="3829" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3829" t="s">
+        <v>3749</v>
+      </c>
+      <c r="B3829" t="s">
+        <v>3749</v>
+      </c>
+    </row>
+    <row r="3830" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3830" t="s">
+        <v>3750</v>
+      </c>
+      <c r="B3830" t="s">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="3831" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3831" t="s">
+        <v>3751</v>
+      </c>
+      <c r="B3831" t="s">
+        <v>3751</v>
+      </c>
+    </row>
+    <row r="3832" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3832" t="s">
+        <v>3752</v>
+      </c>
+      <c r="B3832" t="s">
+        <v>3752</v>
+      </c>
+    </row>
+    <row r="3833" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3833" t="s">
+        <v>3753</v>
+      </c>
+      <c r="B3833" t="s">
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="3834" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3834" t="s">
+        <v>3754</v>
+      </c>
+      <c r="B3834" t="s">
+        <v>3754</v>
+      </c>
+    </row>
+    <row r="3835" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3835" t="s">
+        <v>3755</v>
+      </c>
+      <c r="B3835" t="s">
+        <v>3755</v>
+      </c>
+    </row>
+    <row r="3836" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3836" t="s">
+        <v>3756</v>
+      </c>
+      <c r="B3836" t="s">
+        <v>3756</v>
+      </c>
+    </row>
+    <row r="3837" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3837" t="s">
+        <v>3757</v>
+      </c>
+      <c r="B3837" t="s">
+        <v>3757</v>
+      </c>
+    </row>
+    <row r="3838" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3838" t="s">
+        <v>3758</v>
+      </c>
+      <c r="B3838" t="s">
+        <v>3758</v>
+      </c>
+    </row>
+    <row r="3839" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3839" t="s">
+        <v>3759</v>
+      </c>
+      <c r="B3839" t="s">
+        <v>3759</v>
+      </c>
+    </row>
+    <row r="3840" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3840" t="s">
+        <v>3760</v>
+      </c>
+      <c r="B3840" t="s">
+        <v>3760</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="21" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="19" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="17" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="15" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="79"/>
+  <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A3813 A3841:A1048576">
+    <cfRule type="duplicateValues" dxfId="15" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="80"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1810:A3339">
-    <cfRule type="duplicateValues" dxfId="12" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209:B1631 B1:B23 B25:B84 B143">
-    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1805:B1809 B3442:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="19"/>
+  <conditionalFormatting sqref="B1805:B1809 B3442:B3813 B3841:B1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1810:B3339">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3814:A3840">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LuanNoBoc.xlsx
+++ b/LuanNoBoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDB71C4-F7C7-472E-BF08-2EECA3F1CBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EE2F1E-7BD2-4B5B-B66B-D891F916A9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7676" uniqueCount="3761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7746" uniqueCount="3796">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -11308,6 +11308,111 @@
   </si>
   <si>
     <t>Hổ Tang Không Kiếp</t>
+  </si>
+  <si>
+    <t>Âm Dương Lương</t>
+  </si>
+  <si>
+    <t>Cơ Lương Gia Hội</t>
+  </si>
+  <si>
+    <t>Nhật Chiếu Lôi Môn</t>
+  </si>
+  <si>
+    <t>Tả Hữu Xương Khúc</t>
+  </si>
+  <si>
+    <t>Tham Linh Triều Viên</t>
+  </si>
+  <si>
+    <t>Cự Hỏa Linh</t>
+  </si>
+  <si>
+    <t>Hồng Đào Kỵ</t>
+  </si>
+  <si>
+    <t>Cự Đồng Hình</t>
+  </si>
+  <si>
+    <t>Lương Phá</t>
+  </si>
+  <si>
+    <t>Khôi Việt</t>
+  </si>
+  <si>
+    <t>Tham Vũ Hỏa</t>
+  </si>
+  <si>
+    <t>Cự Kỵ</t>
+  </si>
+  <si>
+    <t>Kình Đà Hỏa</t>
+  </si>
+  <si>
+    <t>Kình Đà Không Kiếp</t>
+  </si>
+  <si>
+    <t>Đào Hồng Hỷ</t>
+  </si>
+  <si>
+    <t>Đào Hồng Kiếp Sát</t>
+  </si>
+  <si>
+    <t>Đào Hồng Kỵ</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật Khoa Quyền Lộc</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật Khoa Quyền Lộc Long Trì Phượng Các</t>
+  </si>
+  <si>
+    <t>Lưu Hà Kiếp Sát</t>
+  </si>
+  <si>
+    <t>Phục Không Kiếp</t>
+  </si>
+  <si>
+    <t>Xương Khúc Khôi Việt</t>
+  </si>
+  <si>
+    <t>Khoa Quyền</t>
+  </si>
+  <si>
+    <t>Lộc Quyền</t>
+  </si>
+  <si>
+    <t>Tướng Binh Đào Hồng</t>
+  </si>
+  <si>
+    <t>Lương Khốc Tuế</t>
+  </si>
+  <si>
+    <t>Tướng Binh</t>
+  </si>
+  <si>
+    <t>Cự Tang</t>
+  </si>
+  <si>
+    <t>Cự Hỏa</t>
+  </si>
+  <si>
+    <t>Phá Hình Kỵ</t>
+  </si>
+  <si>
+    <t>Tang Trực Tuế</t>
+  </si>
+  <si>
+    <t>Tuế Xương Khúc</t>
+  </si>
+  <si>
+    <t>Tử Vi Tả Hữu</t>
+  </si>
+  <si>
+    <t>Tử Vi Tang Tả Hữu</t>
   </si>
 </sst>
 </file>
@@ -11349,7 +11454,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -11856,10 +11971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B3840"/>
+  <dimension ref="A1:B3875"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3836" workbookViewId="0">
-      <selection activeCell="D3830" sqref="D3830"/>
+    <sheetView tabSelected="1" topLeftCell="A3809" workbookViewId="0">
+      <selection activeCell="E3819" sqref="E3819"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42571,57 +42686,337 @@
         <v>3760</v>
       </c>
     </row>
+    <row r="3841" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3841" t="s">
+        <v>3761</v>
+      </c>
+      <c r="B3841" t="s">
+        <v>3761</v>
+      </c>
+    </row>
+    <row r="3842" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3842" t="s">
+        <v>3762</v>
+      </c>
+      <c r="B3842" t="s">
+        <v>3762</v>
+      </c>
+    </row>
+    <row r="3843" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3843" t="s">
+        <v>3763</v>
+      </c>
+      <c r="B3843" t="s">
+        <v>3763</v>
+      </c>
+    </row>
+    <row r="3844" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3844" t="s">
+        <v>3764</v>
+      </c>
+      <c r="B3844" t="s">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="3845" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3845" t="s">
+        <v>3765</v>
+      </c>
+      <c r="B3845" t="s">
+        <v>3765</v>
+      </c>
+    </row>
+    <row r="3846" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3846" t="s">
+        <v>3766</v>
+      </c>
+      <c r="B3846" t="s">
+        <v>3766</v>
+      </c>
+    </row>
+    <row r="3847" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3847" t="s">
+        <v>3767</v>
+      </c>
+      <c r="B3847" t="s">
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="3848" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3848" t="s">
+        <v>3768</v>
+      </c>
+      <c r="B3848" t="s">
+        <v>3768</v>
+      </c>
+    </row>
+    <row r="3849" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3849" t="s">
+        <v>3769</v>
+      </c>
+      <c r="B3849" t="s">
+        <v>3769</v>
+      </c>
+    </row>
+    <row r="3850" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3850" t="s">
+        <v>3770</v>
+      </c>
+      <c r="B3850" t="s">
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="3851" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3851" t="s">
+        <v>3771</v>
+      </c>
+      <c r="B3851" t="s">
+        <v>3771</v>
+      </c>
+    </row>
+    <row r="3852" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3852" t="s">
+        <v>3772</v>
+      </c>
+      <c r="B3852" t="s">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="3853" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3853" t="s">
+        <v>3773</v>
+      </c>
+      <c r="B3853" t="s">
+        <v>3773</v>
+      </c>
+    </row>
+    <row r="3854" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3854" t="s">
+        <v>3774</v>
+      </c>
+      <c r="B3854" t="s">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="3855" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3855" t="s">
+        <v>3775</v>
+      </c>
+      <c r="B3855" t="s">
+        <v>3775</v>
+      </c>
+    </row>
+    <row r="3856" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3856" t="s">
+        <v>3776</v>
+      </c>
+      <c r="B3856" t="s">
+        <v>3776</v>
+      </c>
+    </row>
+    <row r="3857" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3857" t="s">
+        <v>3777</v>
+      </c>
+      <c r="B3857" t="s">
+        <v>3777</v>
+      </c>
+    </row>
+    <row r="3858" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3858" t="s">
+        <v>3778</v>
+      </c>
+      <c r="B3858" t="s">
+        <v>3778</v>
+      </c>
+    </row>
+    <row r="3859" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3859" t="s">
+        <v>3779</v>
+      </c>
+      <c r="B3859" t="s">
+        <v>3779</v>
+      </c>
+    </row>
+    <row r="3860" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3860" t="s">
+        <v>3780</v>
+      </c>
+      <c r="B3860" t="s">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="3861" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3861" t="s">
+        <v>3781</v>
+      </c>
+      <c r="B3861" t="s">
+        <v>3781</v>
+      </c>
+    </row>
+    <row r="3862" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3862" t="s">
+        <v>3782</v>
+      </c>
+      <c r="B3862" t="s">
+        <v>3782</v>
+      </c>
+    </row>
+    <row r="3863" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3863" t="s">
+        <v>3783</v>
+      </c>
+      <c r="B3863" t="s">
+        <v>3783</v>
+      </c>
+    </row>
+    <row r="3864" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3864" t="s">
+        <v>3784</v>
+      </c>
+      <c r="B3864" t="s">
+        <v>3784</v>
+      </c>
+    </row>
+    <row r="3865" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3865" t="s">
+        <v>3785</v>
+      </c>
+      <c r="B3865" t="s">
+        <v>3785</v>
+      </c>
+    </row>
+    <row r="3866" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3866" t="s">
+        <v>3786</v>
+      </c>
+      <c r="B3866" t="s">
+        <v>3786</v>
+      </c>
+    </row>
+    <row r="3867" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3867" t="s">
+        <v>3787</v>
+      </c>
+      <c r="B3867" t="s">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="3868" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3868" t="s">
+        <v>3788</v>
+      </c>
+      <c r="B3868" t="s">
+        <v>3788</v>
+      </c>
+    </row>
+    <row r="3869" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3869" t="s">
+        <v>3789</v>
+      </c>
+      <c r="B3869" t="s">
+        <v>3789</v>
+      </c>
+    </row>
+    <row r="3870" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3870" t="s">
+        <v>3790</v>
+      </c>
+      <c r="B3870" t="s">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="3871" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3871" t="s">
+        <v>3791</v>
+      </c>
+      <c r="B3871" t="s">
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="3872" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3872" t="s">
+        <v>3792</v>
+      </c>
+      <c r="B3872" t="s">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="3873" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3873" t="s">
+        <v>3793</v>
+      </c>
+      <c r="B3873" t="s">
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="3874" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3874" t="s">
+        <v>3794</v>
+      </c>
+      <c r="B3874" t="s">
+        <v>3794</v>
+      </c>
+    </row>
+    <row r="3875" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3875" t="s">
+        <v>3795</v>
+      </c>
+      <c r="B3875" t="s">
+        <v>3795</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="22" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="20" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="18" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="16" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A3813 A3841:A1048576">
-    <cfRule type="duplicateValues" dxfId="15" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="80"/>
+  <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A3813 A3876:A1048576">
+    <cfRule type="duplicateValues" dxfId="16" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1810:A3339">
-    <cfRule type="duplicateValues" dxfId="13" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209:B1631 B1:B23 B25:B84 B143">
-    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1805:B1809 B3442:B3813 B3841:B1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="20"/>
+  <conditionalFormatting sqref="B1805:B1809 B3442:B3813 B3876:B1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1810:B3339">
-    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3814:A3840">
+  <conditionalFormatting sqref="A3814:A3875">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LuanNoBoc.xlsx
+++ b/LuanNoBoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DA2962-C35C-4FA4-B08C-A7C39333D626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A46C75-34CA-45EC-B8F7-08D08703A340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8416" uniqueCount="4208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8574" uniqueCount="4287">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -12649,6 +12649,243 @@
   </si>
   <si>
     <t>L. Đà La tọa thủ tại Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Sát Phá Tham hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Cự Nhật hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Kình Đà hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Xương Khúc hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Hoả Linh hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Không Kiếp hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Quang Quý hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Tả Hữu hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Song Hao hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Tang Hổ hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Khốc Hư hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Hình Riêu hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Thai Toạ hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Đào Hồng hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Ấn Phù hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Song Hao Quyền Lộc Kiếp Hoả hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng Xương Khúc Khôi Việt Tả Hữu Khoa Quyền Lộc Long hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Tử Phủ Vũ Tướng Tả Hữu Khoa Quyền Lộc Long Phượng hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Tử Khúc Phá Dương Đà hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương gặp Xương Khúc Tả Hữu hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Cơ Nguyệt Đồng Lương Khoa Tả Hữu Quang Quý Quan Phúc hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Sát Quyền hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Lộc Mã hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Kiếp Hư Hao Quyền hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Tuế Hổ Phù Xương Khúc hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Xương Khúc Tấu Long Phượng hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Đào Hồng Riêu Tấu Cơ Vũ hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Binh Hình Tướng Ấn hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Hổ Tấu hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Hình Riêu Y hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Mã Hỏa Linh hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Thai Tọa Hồng Đào hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Tả Hữu Không Kiếp hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Tả Hữu Binh Tướng hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Đào Quyền hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Cái Hữu hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Quan Phúc Quang Tấu hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Đào Hồng Xương Khúc hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Đào Tử Phủ hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Hổ Kình Sát hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Hổ Tang Kiếp hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Hổ Tang Không Kiếp hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Âm Dương Lương hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Cơ Lương Gia Hội hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Nhật Chiếu Lôi Môn hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Tả Hữu Xương Khúc hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Tham Linh Triều Viên hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Cự Hỏa Linh hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Hồng Đào Kỵ hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Cự Đồng Hình hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Lương Phá hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Khôi Việt hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Tham Vũ Hỏa hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Cự Kỵ hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Kình Đà Hỏa hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Kình Đà Không Kiếp hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Đào Hồng Hỷ hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Đào Hồng Kiếp Sát hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Đào Hồng Kỵ hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật Khoa Quyền Lộc hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Đào Hồng Tả Phù Hữu Bật Khoa Quyền Lộc Long Trì Phượng Các hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Lưu Hà Kiếp Sát hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Phục Không Kiếp hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Xương Khúc Khôi Việt hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Khoa Quyền hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Lộc Quyền hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Tướng Binh Đào Hồng hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Lương Khốc Tuế hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Tướng Binh hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Cự Tang hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Cự Hỏa hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Phá Hình Kỵ hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Tang Trực Tuế hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Tuế Xương Khúc hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Tử Vi Tả Hữu hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Tử Vi Tang Tả Hữu hội chiếu tại Nô Bộc</t>
   </si>
 </sst>
 </file>
@@ -12690,117 +12927,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -13297,10 +13424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B4209"/>
+  <dimension ref="A1:B4289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4155" workbookViewId="0">
-      <selection activeCell="B4155" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4191" workbookViewId="0">
+      <selection activeCell="B4211" sqref="B4211:B4289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46969,32 +47096,664 @@
         <v>4207</v>
       </c>
     </row>
+    <row r="4211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4211" t="s">
+        <v>4208</v>
+      </c>
+      <c r="B4211" t="s">
+        <v>4208</v>
+      </c>
+    </row>
+    <row r="4212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4212" t="s">
+        <v>4209</v>
+      </c>
+      <c r="B4212" t="s">
+        <v>4209</v>
+      </c>
+    </row>
+    <row r="4213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4213" t="s">
+        <v>4210</v>
+      </c>
+      <c r="B4213" t="s">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="4214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4214" t="s">
+        <v>4211</v>
+      </c>
+      <c r="B4214" t="s">
+        <v>4211</v>
+      </c>
+    </row>
+    <row r="4215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4215" t="s">
+        <v>4212</v>
+      </c>
+      <c r="B4215" t="s">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="4216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4216" t="s">
+        <v>4213</v>
+      </c>
+      <c r="B4216" t="s">
+        <v>4213</v>
+      </c>
+    </row>
+    <row r="4217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4217" t="s">
+        <v>4214</v>
+      </c>
+      <c r="B4217" t="s">
+        <v>4214</v>
+      </c>
+    </row>
+    <row r="4218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4218" t="s">
+        <v>4215</v>
+      </c>
+      <c r="B4218" t="s">
+        <v>4215</v>
+      </c>
+    </row>
+    <row r="4219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4219" t="s">
+        <v>4216</v>
+      </c>
+      <c r="B4219" t="s">
+        <v>4216</v>
+      </c>
+    </row>
+    <row r="4220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4220" t="s">
+        <v>4217</v>
+      </c>
+      <c r="B4220" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="4221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4221" t="s">
+        <v>4218</v>
+      </c>
+      <c r="B4221" t="s">
+        <v>4218</v>
+      </c>
+    </row>
+    <row r="4222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4222" t="s">
+        <v>4219</v>
+      </c>
+      <c r="B4222" t="s">
+        <v>4219</v>
+      </c>
+    </row>
+    <row r="4223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4223" t="s">
+        <v>4220</v>
+      </c>
+      <c r="B4223" t="s">
+        <v>4220</v>
+      </c>
+    </row>
+    <row r="4224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4224" t="s">
+        <v>4221</v>
+      </c>
+      <c r="B4224" t="s">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="4225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4225" t="s">
+        <v>4222</v>
+      </c>
+      <c r="B4225" t="s">
+        <v>4222</v>
+      </c>
+    </row>
+    <row r="4226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4226" t="s">
+        <v>4223</v>
+      </c>
+      <c r="B4226" t="s">
+        <v>4223</v>
+      </c>
+    </row>
+    <row r="4227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4227" t="s">
+        <v>4224</v>
+      </c>
+      <c r="B4227" t="s">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="4228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4228" t="s">
+        <v>4225</v>
+      </c>
+      <c r="B4228" t="s">
+        <v>4225</v>
+      </c>
+    </row>
+    <row r="4229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4229" t="s">
+        <v>4226</v>
+      </c>
+      <c r="B4229" t="s">
+        <v>4226</v>
+      </c>
+    </row>
+    <row r="4230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4230" t="s">
+        <v>4227</v>
+      </c>
+      <c r="B4230" t="s">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="4231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4231" t="s">
+        <v>4228</v>
+      </c>
+      <c r="B4231" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="4232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4232" t="s">
+        <v>4229</v>
+      </c>
+      <c r="B4232" t="s">
+        <v>4229</v>
+      </c>
+    </row>
+    <row r="4233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4233" t="s">
+        <v>4230</v>
+      </c>
+      <c r="B4233" t="s">
+        <v>4230</v>
+      </c>
+    </row>
+    <row r="4234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4234" t="s">
+        <v>4231</v>
+      </c>
+      <c r="B4234" t="s">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="4235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4235" t="s">
+        <v>4232</v>
+      </c>
+      <c r="B4235" t="s">
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="4236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4236" t="s">
+        <v>4233</v>
+      </c>
+      <c r="B4236" t="s">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="4237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4237" t="s">
+        <v>4234</v>
+      </c>
+      <c r="B4237" t="s">
+        <v>4234</v>
+      </c>
+    </row>
+    <row r="4238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4238" t="s">
+        <v>4235</v>
+      </c>
+      <c r="B4238" t="s">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="4239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4239" t="s">
+        <v>4236</v>
+      </c>
+      <c r="B4239" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="4240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4240" t="s">
+        <v>4237</v>
+      </c>
+      <c r="B4240" t="s">
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="4241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4241" t="s">
+        <v>4238</v>
+      </c>
+      <c r="B4241" t="s">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="4242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4242" t="s">
+        <v>4239</v>
+      </c>
+      <c r="B4242" t="s">
+        <v>4239</v>
+      </c>
+    </row>
+    <row r="4243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4243" t="s">
+        <v>4240</v>
+      </c>
+      <c r="B4243" t="s">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="4244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4244" t="s">
+        <v>4241</v>
+      </c>
+      <c r="B4244" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="4245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4245" t="s">
+        <v>4242</v>
+      </c>
+      <c r="B4245" t="s">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="4246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4246" t="s">
+        <v>4243</v>
+      </c>
+      <c r="B4246" t="s">
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="4247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4247" t="s">
+        <v>4244</v>
+      </c>
+      <c r="B4247" t="s">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="4248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4248" t="s">
+        <v>4245</v>
+      </c>
+      <c r="B4248" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="4249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4249" t="s">
+        <v>4246</v>
+      </c>
+      <c r="B4249" t="s">
+        <v>4246</v>
+      </c>
+    </row>
+    <row r="4250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4250" t="s">
+        <v>4247</v>
+      </c>
+      <c r="B4250" t="s">
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="4251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4251" t="s">
+        <v>4248</v>
+      </c>
+      <c r="B4251" t="s">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="4252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4252" t="s">
+        <v>4249</v>
+      </c>
+      <c r="B4252" t="s">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="4253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4253" t="s">
+        <v>4250</v>
+      </c>
+      <c r="B4253" t="s">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="4254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4254" t="s">
+        <v>4251</v>
+      </c>
+      <c r="B4254" t="s">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="4255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4255" t="s">
+        <v>4252</v>
+      </c>
+      <c r="B4255" t="s">
+        <v>4252</v>
+      </c>
+    </row>
+    <row r="4256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4256" t="s">
+        <v>4253</v>
+      </c>
+      <c r="B4256" t="s">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="4257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4257" t="s">
+        <v>4254</v>
+      </c>
+      <c r="B4257" t="s">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="4258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4258" t="s">
+        <v>4255</v>
+      </c>
+      <c r="B4258" t="s">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="4259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4259" t="s">
+        <v>4256</v>
+      </c>
+      <c r="B4259" t="s">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="4260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4260" t="s">
+        <v>4257</v>
+      </c>
+      <c r="B4260" t="s">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="4261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4261" t="s">
+        <v>4258</v>
+      </c>
+      <c r="B4261" t="s">
+        <v>4258</v>
+      </c>
+    </row>
+    <row r="4262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4262" t="s">
+        <v>4259</v>
+      </c>
+      <c r="B4262" t="s">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="4263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4263" t="s">
+        <v>4260</v>
+      </c>
+      <c r="B4263" t="s">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="4264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4264" t="s">
+        <v>4261</v>
+      </c>
+      <c r="B4264" t="s">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="4265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4265" t="s">
+        <v>4262</v>
+      </c>
+      <c r="B4265" t="s">
+        <v>4262</v>
+      </c>
+    </row>
+    <row r="4266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4266" t="s">
+        <v>4263</v>
+      </c>
+      <c r="B4266" t="s">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="4267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4267" t="s">
+        <v>4264</v>
+      </c>
+      <c r="B4267" t="s">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="4268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4268" t="s">
+        <v>4265</v>
+      </c>
+      <c r="B4268" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="4269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4269" t="s">
+        <v>4266</v>
+      </c>
+      <c r="B4269" t="s">
+        <v>4266</v>
+      </c>
+    </row>
+    <row r="4270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4270" t="s">
+        <v>4267</v>
+      </c>
+      <c r="B4270" t="s">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="4271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4271" t="s">
+        <v>4268</v>
+      </c>
+      <c r="B4271" t="s">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="4272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4272" t="s">
+        <v>4269</v>
+      </c>
+      <c r="B4272" t="s">
+        <v>4269</v>
+      </c>
+    </row>
+    <row r="4273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4273" t="s">
+        <v>4270</v>
+      </c>
+      <c r="B4273" t="s">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="4274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4274" t="s">
+        <v>4271</v>
+      </c>
+      <c r="B4274" t="s">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="4275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4275" t="s">
+        <v>4272</v>
+      </c>
+      <c r="B4275" t="s">
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="4276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4276" t="s">
+        <v>4273</v>
+      </c>
+      <c r="B4276" t="s">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="4277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4277" t="s">
+        <v>4274</v>
+      </c>
+      <c r="B4277" t="s">
+        <v>4274</v>
+      </c>
+    </row>
+    <row r="4278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4278" t="s">
+        <v>4275</v>
+      </c>
+      <c r="B4278" t="s">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="4279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4279" t="s">
+        <v>4276</v>
+      </c>
+      <c r="B4279" t="s">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="4280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4280" t="s">
+        <v>4277</v>
+      </c>
+      <c r="B4280" t="s">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="4281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4281" t="s">
+        <v>4278</v>
+      </c>
+      <c r="B4281" t="s">
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="4282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4282" t="s">
+        <v>4279</v>
+      </c>
+      <c r="B4282" t="s">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="4283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4283" t="s">
+        <v>4280</v>
+      </c>
+      <c r="B4283" t="s">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="4284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4284" t="s">
+        <v>4281</v>
+      </c>
+      <c r="B4284" t="s">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="4285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4285" t="s">
+        <v>4282</v>
+      </c>
+      <c r="B4285" t="s">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="4286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4286" t="s">
+        <v>4283</v>
+      </c>
+      <c r="B4286" t="s">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="4287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4287" t="s">
+        <v>4284</v>
+      </c>
+      <c r="B4287" t="s">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="4288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4288" t="s">
+        <v>4285</v>
+      </c>
+      <c r="B4288" t="s">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="4289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4289" t="s">
+        <v>4286</v>
+      </c>
+      <c r="B4289" t="s">
+        <v>4286</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="32" priority="92"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="30" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="28" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="26" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A3813 A3876:A4176 A6722:A1048576">
-    <cfRule type="duplicateValues" dxfId="25" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="103"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1810:A3339">
-    <cfRule type="duplicateValues" dxfId="23" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3814:A3875">
-    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
     <cfRule type="duplicateValues" dxfId="10" priority="8"/>

--- a/LuanNoBoc.xlsx
+++ b/LuanNoBoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App tu vi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A46C75-34CA-45EC-B8F7-08D08703A340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F92510-645F-4194-A4E7-D3D8C4DFED3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8574" uniqueCount="4287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8784" uniqueCount="4392">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -12886,6 +12886,321 @@
   </si>
   <si>
     <t>Tử Vi Tang Tả Hữu hội chiếu tại Nô Bộc</t>
+  </si>
+  <si>
+    <t>Tử Vi tọa thủ tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Cơ tọa thủ tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thái Dương tọa thủ tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Vũ Khúc tọa thủ tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Đồng tọa thủ tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Liêm Trinh tọa thủ tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Phủ tọa thủ tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thái Âm tọa thủ tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Tham Lang tọa thủ tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Cự Môn tọa thủ tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Tướng tọa thủ tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Lương tọa thủ tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thất Sát tọa thủ tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Phá Quân tọa thủ tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Cơ tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thái Dương tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Vũ Khúc tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Đồng tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Liêm Trinh tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Phủ tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thái Âm tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Tham Lang tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Cự Môn tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Tướng tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thiên Lương tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Thất Sát tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Tử Vi đồng cung Phá Quân tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thái Dương tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Vũ Khúc tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thiên Đồng tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Liêm Trinh tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thiên Phủ tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thái Âm tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Tham Lang tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Cự Môn tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thiên Tướng tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thiên Lương tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Thất Sát tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Cơ đồng cung Phá Quân tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Vũ Khúc tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thiên Đồng tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Liêm Trinh tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thiên Phủ tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thái Âm tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Tham Lang tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Cự Môn tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thiên Tướng tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thiên Lương tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Thất Sát tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thái Dương đồng cung Phá Quân tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thiên Đồng tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Liêm Trinh tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thiên Phủ tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thái Âm tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Tham Lang tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Cự Môn tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thiên Tướng tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thiên Lương tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Thất Sát tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Vũ Khúc đồng cung Phá Quân tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Liêm Trinh tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thiên Phủ tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thái Âm tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Tham Lang tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Cự Môn tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thiên Tướng tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thiên Lương tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Thất Sát tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Đồng đồng cung Phá Quân tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thiên Phủ tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thái Âm tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Tham Lang tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Cự Môn tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thiên Tướng tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thiên Lương tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Thất Sát tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Liêm Trinh đồng cung Phá Quân tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Thái Âm tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Tham Lang tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Cự Môn tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Thiên Tướng tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Thiên Lương tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Thất Sát tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Phủ đồng cung Phá Quân tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Tham Lang tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Cự Môn tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Thiên Tướng tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Thiên Lương tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Thất Sát tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thái Âm đồng cung Phá Quân tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Cự Môn tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Thiên Tướng tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Thiên Lương tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Thất Sát tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Tham Lang đồng cung Phá Quân tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Cự Môn đồng cung Thiên Tướng tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Cự Môn đồng cung Thiên Lương tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Cự Môn đồng cung Thất Sát tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Cự Môn đồng cung Phá Quân tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Tướng đồng cung Thiên Lương tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Tướng đồng cung Thất Sát tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Tướng đồng cung Phá Quân tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Lương đồng cung Thất Sát tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thiên Lương đồng cung Phá Quân tại cung đối Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Thất Sát đồng cung Phá Quân tại cung đối Huynh Đệ</t>
   </si>
 </sst>
 </file>
@@ -13424,10 +13739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
-  <dimension ref="A1:B4289"/>
+  <dimension ref="A1:B4395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4191" workbookViewId="0">
-      <selection activeCell="B4211" sqref="B4211:B4289"/>
+    <sheetView tabSelected="1" topLeftCell="A4287" workbookViewId="0">
+      <selection activeCell="I4312" sqref="I4312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47726,6 +48041,846 @@
       </c>
       <c r="B4289" t="s">
         <v>4286</v>
+      </c>
+    </row>
+    <row r="4291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4291" t="s">
+        <v>4287</v>
+      </c>
+      <c r="B4291" t="s">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="4292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4292" t="s">
+        <v>4288</v>
+      </c>
+      <c r="B4292" t="s">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="4293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4293" t="s">
+        <v>4289</v>
+      </c>
+      <c r="B4293" t="s">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="4294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4294" t="s">
+        <v>4290</v>
+      </c>
+      <c r="B4294" t="s">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="4295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4295" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B4295" t="s">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="4296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4296" t="s">
+        <v>4292</v>
+      </c>
+      <c r="B4296" t="s">
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="4297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4297" t="s">
+        <v>4293</v>
+      </c>
+      <c r="B4297" t="s">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="4298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4298" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B4298" t="s">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="4299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4299" t="s">
+        <v>4295</v>
+      </c>
+      <c r="B4299" t="s">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="4300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4300" t="s">
+        <v>4296</v>
+      </c>
+      <c r="B4300" t="s">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="4301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4301" t="s">
+        <v>4297</v>
+      </c>
+      <c r="B4301" t="s">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="4302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4302" t="s">
+        <v>4298</v>
+      </c>
+      <c r="B4302" t="s">
+        <v>4298</v>
+      </c>
+    </row>
+    <row r="4303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4303" t="s">
+        <v>4299</v>
+      </c>
+      <c r="B4303" t="s">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="4304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4304" t="s">
+        <v>4300</v>
+      </c>
+      <c r="B4304" t="s">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="4305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4305" t="s">
+        <v>4301</v>
+      </c>
+      <c r="B4305" t="s">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="4306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4306" t="s">
+        <v>4302</v>
+      </c>
+      <c r="B4306" t="s">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="4307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4307" t="s">
+        <v>4303</v>
+      </c>
+      <c r="B4307" t="s">
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="4308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4308" t="s">
+        <v>4304</v>
+      </c>
+      <c r="B4308" t="s">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="4309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4309" t="s">
+        <v>4305</v>
+      </c>
+      <c r="B4309" t="s">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="4310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4310" t="s">
+        <v>4306</v>
+      </c>
+      <c r="B4310" t="s">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="4311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4311" t="s">
+        <v>4307</v>
+      </c>
+      <c r="B4311" t="s">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="4312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4312" t="s">
+        <v>4308</v>
+      </c>
+      <c r="B4312" t="s">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="4313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4313" t="s">
+        <v>4309</v>
+      </c>
+      <c r="B4313" t="s">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="4314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4314" t="s">
+        <v>4310</v>
+      </c>
+      <c r="B4314" t="s">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="4315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4315" t="s">
+        <v>4311</v>
+      </c>
+      <c r="B4315" t="s">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="4316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4316" t="s">
+        <v>4312</v>
+      </c>
+      <c r="B4316" t="s">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="4317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4317" t="s">
+        <v>4313</v>
+      </c>
+      <c r="B4317" t="s">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="4318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4318" t="s">
+        <v>4314</v>
+      </c>
+      <c r="B4318" t="s">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="4319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4319" t="s">
+        <v>4315</v>
+      </c>
+      <c r="B4319" t="s">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="4320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4320" t="s">
+        <v>4316</v>
+      </c>
+      <c r="B4320" t="s">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="4321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4321" t="s">
+        <v>4317</v>
+      </c>
+      <c r="B4321" t="s">
+        <v>4317</v>
+      </c>
+    </row>
+    <row r="4322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4322" t="s">
+        <v>4318</v>
+      </c>
+      <c r="B4322" t="s">
+        <v>4318</v>
+      </c>
+    </row>
+    <row r="4323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4323" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B4323" t="s">
+        <v>4319</v>
+      </c>
+    </row>
+    <row r="4324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4324" t="s">
+        <v>4320</v>
+      </c>
+      <c r="B4324" t="s">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="4325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4325" t="s">
+        <v>4321</v>
+      </c>
+      <c r="B4325" t="s">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="4326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4326" t="s">
+        <v>4322</v>
+      </c>
+      <c r="B4326" t="s">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="4327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4327" t="s">
+        <v>4323</v>
+      </c>
+      <c r="B4327" t="s">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="4328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4328" t="s">
+        <v>4324</v>
+      </c>
+      <c r="B4328" t="s">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="4329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4329" t="s">
+        <v>4325</v>
+      </c>
+      <c r="B4329" t="s">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="4330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4330" t="s">
+        <v>4326</v>
+      </c>
+      <c r="B4330" t="s">
+        <v>4326</v>
+      </c>
+    </row>
+    <row r="4331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4331" t="s">
+        <v>4327</v>
+      </c>
+      <c r="B4331" t="s">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="4332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4332" t="s">
+        <v>4328</v>
+      </c>
+      <c r="B4332" t="s">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="4333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4333" t="s">
+        <v>4329</v>
+      </c>
+      <c r="B4333" t="s">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="4334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4334" t="s">
+        <v>4330</v>
+      </c>
+      <c r="B4334" t="s">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="4335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4335" t="s">
+        <v>4331</v>
+      </c>
+      <c r="B4335" t="s">
+        <v>4331</v>
+      </c>
+    </row>
+    <row r="4336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4336" t="s">
+        <v>4332</v>
+      </c>
+      <c r="B4336" t="s">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="4337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4337" t="s">
+        <v>4333</v>
+      </c>
+      <c r="B4337" t="s">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="4338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4338" t="s">
+        <v>4334</v>
+      </c>
+      <c r="B4338" t="s">
+        <v>4334</v>
+      </c>
+    </row>
+    <row r="4339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4339" t="s">
+        <v>4335</v>
+      </c>
+      <c r="B4339" t="s">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="4340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4340" t="s">
+        <v>4336</v>
+      </c>
+      <c r="B4340" t="s">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="4341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4341" t="s">
+        <v>4337</v>
+      </c>
+      <c r="B4341" t="s">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="4342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4342" t="s">
+        <v>4338</v>
+      </c>
+      <c r="B4342" t="s">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="4343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4343" t="s">
+        <v>4339</v>
+      </c>
+      <c r="B4343" t="s">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="4344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4344" t="s">
+        <v>4340</v>
+      </c>
+      <c r="B4344" t="s">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="4345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4345" t="s">
+        <v>4341</v>
+      </c>
+      <c r="B4345" t="s">
+        <v>4341</v>
+      </c>
+    </row>
+    <row r="4346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4346" t="s">
+        <v>4342</v>
+      </c>
+      <c r="B4346" t="s">
+        <v>4342</v>
+      </c>
+    </row>
+    <row r="4347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4347" t="s">
+        <v>4343</v>
+      </c>
+      <c r="B4347" t="s">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="4348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4348" t="s">
+        <v>4344</v>
+      </c>
+      <c r="B4348" t="s">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="4349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4349" t="s">
+        <v>4345</v>
+      </c>
+      <c r="B4349" t="s">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="4350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4350" t="s">
+        <v>4346</v>
+      </c>
+      <c r="B4350" t="s">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="4351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4351" t="s">
+        <v>4347</v>
+      </c>
+      <c r="B4351" t="s">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="4352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4352" t="s">
+        <v>4348</v>
+      </c>
+      <c r="B4352" t="s">
+        <v>4348</v>
+      </c>
+    </row>
+    <row r="4353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4353" t="s">
+        <v>4349</v>
+      </c>
+      <c r="B4353" t="s">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="4354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4354" t="s">
+        <v>4350</v>
+      </c>
+      <c r="B4354" t="s">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="4355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4355" t="s">
+        <v>4351</v>
+      </c>
+      <c r="B4355" t="s">
+        <v>4351</v>
+      </c>
+    </row>
+    <row r="4356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4356" t="s">
+        <v>4352</v>
+      </c>
+      <c r="B4356" t="s">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="4357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4357" t="s">
+        <v>4353</v>
+      </c>
+      <c r="B4357" t="s">
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="4358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4358" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B4358" t="s">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="4359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4359" t="s">
+        <v>4355</v>
+      </c>
+      <c r="B4359" t="s">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="4360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4360" t="s">
+        <v>4356</v>
+      </c>
+      <c r="B4360" t="s">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="4361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4361" t="s">
+        <v>4357</v>
+      </c>
+      <c r="B4361" t="s">
+        <v>4357</v>
+      </c>
+    </row>
+    <row r="4362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4362" t="s">
+        <v>4358</v>
+      </c>
+      <c r="B4362" t="s">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="4363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4363" t="s">
+        <v>4359</v>
+      </c>
+      <c r="B4363" t="s">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="4364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4364" t="s">
+        <v>4360</v>
+      </c>
+      <c r="B4364" t="s">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="4365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4365" t="s">
+        <v>4361</v>
+      </c>
+      <c r="B4365" t="s">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="4366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4366" t="s">
+        <v>4362</v>
+      </c>
+      <c r="B4366" t="s">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="4367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4367" t="s">
+        <v>4363</v>
+      </c>
+      <c r="B4367" t="s">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="4368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4368" t="s">
+        <v>4364</v>
+      </c>
+      <c r="B4368" t="s">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="4369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4369" t="s">
+        <v>4365</v>
+      </c>
+      <c r="B4369" t="s">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="4370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4370" t="s">
+        <v>4366</v>
+      </c>
+      <c r="B4370" t="s">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="4371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4371" t="s">
+        <v>4367</v>
+      </c>
+      <c r="B4371" t="s">
+        <v>4367</v>
+      </c>
+    </row>
+    <row r="4372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4372" t="s">
+        <v>4368</v>
+      </c>
+      <c r="B4372" t="s">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="4373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4373" t="s">
+        <v>4369</v>
+      </c>
+      <c r="B4373" t="s">
+        <v>4369</v>
+      </c>
+    </row>
+    <row r="4374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4374" t="s">
+        <v>4370</v>
+      </c>
+      <c r="B4374" t="s">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="4375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4375" t="s">
+        <v>4371</v>
+      </c>
+      <c r="B4375" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="4376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4376" t="s">
+        <v>4372</v>
+      </c>
+      <c r="B4376" t="s">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="4377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4377" t="s">
+        <v>4373</v>
+      </c>
+      <c r="B4377" t="s">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="4378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4378" t="s">
+        <v>4374</v>
+      </c>
+      <c r="B4378" t="s">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="4379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4379" t="s">
+        <v>4375</v>
+      </c>
+      <c r="B4379" t="s">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="4380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4380" t="s">
+        <v>4376</v>
+      </c>
+      <c r="B4380" t="s">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="4381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4381" t="s">
+        <v>4377</v>
+      </c>
+      <c r="B4381" t="s">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="4382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4382" t="s">
+        <v>4378</v>
+      </c>
+      <c r="B4382" t="s">
+        <v>4378</v>
+      </c>
+    </row>
+    <row r="4383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4383" t="s">
+        <v>4379</v>
+      </c>
+      <c r="B4383" t="s">
+        <v>4379</v>
+      </c>
+    </row>
+    <row r="4384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4384" t="s">
+        <v>4380</v>
+      </c>
+      <c r="B4384" t="s">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="4385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4385" t="s">
+        <v>4381</v>
+      </c>
+      <c r="B4385" t="s">
+        <v>4381</v>
+      </c>
+    </row>
+    <row r="4386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4386" t="s">
+        <v>4382</v>
+      </c>
+      <c r="B4386" t="s">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="4387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4387" t="s">
+        <v>4383</v>
+      </c>
+      <c r="B4387" t="s">
+        <v>4383</v>
+      </c>
+    </row>
+    <row r="4388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4388" t="s">
+        <v>4384</v>
+      </c>
+      <c r="B4388" t="s">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="4389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4389" t="s">
+        <v>4385</v>
+      </c>
+      <c r="B4389" t="s">
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="4390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4390" t="s">
+        <v>4386</v>
+      </c>
+      <c r="B4390" t="s">
+        <v>4386</v>
+      </c>
+    </row>
+    <row r="4391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4391" t="s">
+        <v>4387</v>
+      </c>
+      <c r="B4391" t="s">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="4392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4392" t="s">
+        <v>4388</v>
+      </c>
+      <c r="B4392" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="4393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4393" t="s">
+        <v>4389</v>
+      </c>
+      <c r="B4393" t="s">
+        <v>4389</v>
+      </c>
+    </row>
+    <row r="4394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4394" t="s">
+        <v>4390</v>
+      </c>
+      <c r="B4394" t="s">
+        <v>4390</v>
+      </c>
+    </row>
+    <row r="4395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4395" t="s">
+        <v>4391</v>
+      </c>
+      <c r="B4395" t="s">
+        <v>4391</v>
       </c>
     </row>
   </sheetData>

--- a/LuanNoBoc.xlsx
+++ b/LuanNoBoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77B090F-11B1-4720-8039-FA4E7685540E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9876C59F-6030-4E91-9035-7269EA1C386D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15168" uniqueCount="6520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15168" uniqueCount="6522">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -19586,6 +19586,12 @@
   </si>
   <si>
     <t>Tham Lang sao tối toạ thủ tại Mệnh gặp Thiên Phủ ở Huynh Đệ sao tối</t>
+  </si>
+  <si>
+    <t>Bạn bè có danh chức.</t>
+  </si>
+  <si>
+    <t>Bạn bè nhiều người giỏi</t>
   </si>
 </sst>
 </file>
@@ -19630,67 +19636,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -20300,8 +20246,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B6523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5437" workbookViewId="0">
-      <selection activeCell="F5450" sqref="F5450"/>
+    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
+      <selection activeCell="D325" sqref="D325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54050,7 +53996,7 @@
         <v>4217</v>
       </c>
       <c r="B4220" s="1" t="s">
-        <v>4217</v>
+        <v>6521</v>
       </c>
     </row>
     <row r="4221" spans="1:2" x14ac:dyDescent="0.25">
@@ -54506,7 +54452,7 @@
         <v>4274</v>
       </c>
       <c r="B4277" s="1" t="s">
-        <v>4274</v>
+        <v>6520</v>
       </c>
     </row>
     <row r="4278" spans="1:2" x14ac:dyDescent="0.25">
@@ -72472,68 +72418,68 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="38" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="102"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85:A142">
-    <cfRule type="duplicateValues" dxfId="36" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144">
-    <cfRule type="duplicateValues" dxfId="34" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="76"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145:A208">
-    <cfRule type="duplicateValues" dxfId="32" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1810:A3339">
+    <cfRule type="duplicateValues" dxfId="25" priority="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3814:A3875">
+    <cfRule type="duplicateValues" dxfId="24" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4981:A5459 A209:A1631 A1:A23 A25:A84 A143 A1805:A1809 A3442:A3813 A3876:A4176 A6524:A1048576">
-    <cfRule type="duplicateValues" dxfId="31" priority="110"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="112"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1810:A3339">
-    <cfRule type="duplicateValues" dxfId="29" priority="53"/>
+  <conditionalFormatting sqref="A6045:A6523">
+    <cfRule type="duplicateValues" dxfId="21" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3814:A3875">
-    <cfRule type="duplicateValues" dxfId="28" priority="32"/>
+  <conditionalFormatting sqref="A1:B5459 A6524:B1048576">
+    <cfRule type="duplicateValues" dxfId="19" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5460:B6523">
+    <cfRule type="duplicateValues" dxfId="18" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="27" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B85:B142">
-    <cfRule type="duplicateValues" dxfId="25" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144">
-    <cfRule type="duplicateValues" dxfId="23" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B208">
-    <cfRule type="duplicateValues" dxfId="21" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1810:B3339">
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3814:B3875">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4981:B5459 B209:B1631 B1:B23 B25:B84 B143 B1805:B1809 B3442:B3813 B3876:B4176 B6524:B1048576">
-    <cfRule type="duplicateValues" dxfId="20" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1810:B3339">
-    <cfRule type="duplicateValues" dxfId="18" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3814:B3875">
-    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B5459 A6524:B1048576">
-    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6045:A6523">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6045:B6523">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5460:B6523">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -81064,15 +81010,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A586:A1064">
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:B1064">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B586:B1064">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B1064">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LuanNoBoc.xlsx
+++ b/LuanNoBoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App_Tuvi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E7507C-6D4A-49BE-822D-827CDA8ED887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA1A58C-2C1C-411E-AB93-002312182235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13277" uniqueCount="5706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13349" uniqueCount="5765">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -17151,6 +17151,183 @@
   </si>
   <si>
     <t>Tả Phù tọa thủ tại Huynh Đệ</t>
+  </si>
+  <si>
+    <t>Vũ khúc là sao mang nhiều đặc tính khác nhau. Có phần năng động như Thái Dương, phần suy nghĩ như Thiên Đồng, phần mưu tính như Thiên Cơ, phần thụ động như Thái Âm; tuy vậy nói chung vẫn ngã về phía tĩnh, có tinh thần trách nhiệm, nhưng cầu mong sự an ổn. Thiên Tướng cũng mang đặc tính thụ động, muốn giảm thiểu mọi sự đổi thay. Hai sao hợp lại gây ra khuynh hướng bảo thủ, thiếu tính sáng tạo, không phát triển cái mới mà chỉ giữ những gì có sẵn. Người có Vũ Tướng cùng cung không phải lo vật lộn với miếng cơm manh áo, nhưng vì tâm lý thụ động, lại thiếu những vận may lớn nên rất khó trở thành đại phú.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Nhiều khả năng, chịu học hỏi, không quản lao khổ, lời nói đi đôi với việc làm, ra công hết sức.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Tính ương nhạnh, hành sự nôn nóng, không chịu nghe lời khuyên bảo, nhiều bệnh tật, ít gặp may mắn. Thiếu khả năng sáng tạo, đời sống thường khổ tâm vì hay so sánh với người khác mà sinh bất đắc chí.</t>
+  </si>
+  <si>
+    <t>Thái Dương là "trung thiên đế vương tinh" uy cường, Thiên Lương là phúc tinh ôn nhã, hai sao cùng cung tất phải tương nhượng nhau mà hướng về trung đạo.</t>
+  </si>
+  <si>
+    <t>Hai vị trí cùng cung là Mão Dậu, thuộc "tứ chính đào hoa địa". Mão là đất vượng của Thái Dương, nên Thái Dương lấn áp Thiên Lương; Dậu là phương hãm của Thái Dương, nên ảnh hưởng của Thiên Lương có phần trội vượt. Vì đặc tính đào hoa, ở cả hai nơi cá nhân sẽ có nhiều duyên may mắn. Nếu chọn ngành thương mãi thì dễ đạt mục tiêu vật chất. Nhưng trong mọi trường hợp, e là khó tìm được hạnh phúc gia đình.</t>
+  </si>
+  <si>
+    <t>Cá nhân sẽ có nhiều điểm cố chấp nhưng lại có trái tim dễ bị xúc dộng nên khả năng quyết định không chuyên nhất, thành bại vì thế khó lường.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Quang minh chính dại, tích cực, hiền hòa, thích phục vụ xã hội, không sợ mệt nhọc, hiểm nguy, thất bại. Có phong thái quí phái, làm việc cẩn trọng suy tính. Biết trọng người trên, nhường kẻ dưới.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Tâm lý do dự, khả năng phán đoán thiếu sót, không biết mình biết người, nên dễ lao tâm vô ích. Không biết lẽ tiến thủ nên hay kẹt vào những hoàn cảnh, nhất là hoàn cảnh tình cảm, không thể tìm đường giải quyết.</t>
+  </si>
+  <si>
+    <t>Là cách cục đại cát, phú quý lâu dài</t>
+  </si>
+  <si>
+    <t>Chỉ cùng cung tại Dần Thân, thuộc "tứ mã địa", đại biểu của khuynh hướng chuyển biến, nên mặc dù có tính bảo thủ đời sống lại có nhiều thay đổi.</t>
+  </si>
+  <si>
+    <t>Thiên Đồng vốn thụ động, an phận thủ thường; trong khi đó Thiên Lương mang nhiều ước vọng cao vời, cá nhân vì vậy có tâm lý rất phức tạp, nhiều khi đổi thay chỉ vì cá tính, nhiều khi đổi thay vì muốn thăng tiến sự nghiệp. Nói chung, những đổi thay thường có đắn đo kèm theo, nên thiếu sự bình tĩnh vốn là đặc tính của cả hai sao khi đứng riêng rẽ. Nhưng số may mắn, đổi thay đa số dẫn đến kết quả tốt, vô hình chung khiến con người trở thành kinh nghiệm, lịch duyệt.</t>
+  </si>
+  <si>
+    <t>Đây là loại người dấu kín nội tâm. Bề ngoài mềm mỏng, ít gây thù oán.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Có lòng tốt, thích giúp đỡ kẻ khác, thị phi phân minh. Biết chỗ đứng của mình, ít giữ thù hận trong lòng. Không tranh chấp. Đối xử hòa đồng với mọi người. Chịu khó học hỏi. Cá tính kiên nhẫn. Có duyên gặp gỡ và hòa hợp với nhiều loại người, già cũng như trẻ.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Lòng tự tôn quá caọ Tâm tư bất định. Ước muốn không rõ ràng. Thường hành sự cô độc. Cho dù có ý muốn hợp tác với người khác, thì khi vào việc vẫn có khuynh hướng chạy làng. Có nhiều duyên với người khác phái, nhưng vì vậy mà tình cảm thường gặp phức tạp. Trong khi đó tâm giao, tri kỷ thì lại hiếm hoi.</t>
+  </si>
+  <si>
+    <t>Liêm Trinh còn là sao Tù Tinh, có tính chất ăn chơi phóng khoáng, liều lĩnh, nóng nảy, bốc đồng, khó kiểm soát bản thân, Tham Lang là sao Dâm Tinh, bướng bỉnh, ham vui ham chơi, bất cần. Vậy nên khi hai sao này đi cùng nhau rất dễ vì tình ái và sự liều lĩnh mà dễ dính dáng đến pháp luật, tính khí thất thường, sáng nắng chiều mưa</t>
+  </si>
+  <si>
+    <t>Bạn xử sự có mạch lạc, lớp lang, ngăn nắp, thứ tự, có thể dựa vào đó để định phương kế và kế hoạch làm việc, cho nên thích hợp làm công chức, hoặc đảm nhiệm chức vụ trong công ty. Xã hội hiện đại xem trọng việc quản lý công ty, rất thích hợp với Bạn có mệnh cách này.</t>
+  </si>
+  <si>
+    <t>Thiên Cơ thuộc Mộc biểu tượng mưu trí, tính toán, nhẫn nại; Thái Âm thuộc thủy biểu tượng cung cách nho nhã, tình cảm lãng mạn. Luận về ngũ hành thì hai sao tương hợp. Nhưng Dần Thân thuộc "tứ mã địa" chủ sự dời đổi, biến chuyển; nên có thể thấy từ đặc tính của hai sao rằng đây không phải là vị trí thích hợp lắm.</t>
+  </si>
+  <si>
+    <t>Ở Dần Thái Âm hãm, ở Thân Thái Âm vượng, nên có Cơ Âm đồng cung ở Thân thì gặp nhiều may mắn hơn ở Dần; nhưng cả hai cung vẫn có chung một số tính chất. Cá nhân có "Cơ Nguyệt tương phùng cách" nội tâm ít khi thỏa mãn với hoàn cảnh hiện tại, hay thay đổi bất chợt, nhưng lại e sợ hậu quả, nên mọi đổi thay đều ở mức lưng chừng, thiếu dứt khoát, nên dễ khốn khổ vì lâm vào những hoàn cảnh khúc mắc, khó giải quyết.</t>
+  </si>
+  <si>
+    <t>Người có Cơ Nguyệt ở Dần Thân thiếu uy nghiêm nên không hợp với vai trò lãnh đạo. Nên tìm những công việc chuyên môn, hoặc buôn bán độc lập. Nếu không lượng sức mình mà đi vào những địa hạt cần quyền biến mau lẹ thì khó lòng tránh khỏi thất bại.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Cốt cách, phong tư nho nhã, dễ chiếm cảm tình của người khác (đặc biệt là người khác phái). Thông minh, hiểu chuyện mau lẹ. Có trực giác linh mẫn. Có cơ may gặp nhiều duyên lạ trong tình cảm cũng như sự nghiệp.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Thiếu nghị lực, ý chí, khả năng điều hànhg. Nhiều mơ mộng, thiếu thực tế. Trọng hư danh. Nội tâm nhiều mâu thuẫn, và (trừ khi có nhiều sao chế hóa) khá ích kỷ. Tình cảm biến đổi, trước trọng sau khinh. Khó được người đời kính trọng.</t>
+  </si>
+  <si>
+    <t>Bạn là Bạn yếu thế,nhìn đời bằng ánh mắt tiêu cực hay muốn thoát tục đi tu. Hoặc chỉ có thoát tục đi tu thì bạn mới có thể an yên, bớt vất vả.</t>
+  </si>
+  <si>
+    <t>Tử Vi vốn đã có khí phái phong lưu, Tham Lang lại là sao của lòng tham vật dục, nên trường hợp thông thường là đời sống buông thả. Nhưng chú ý! Vì khuynh hướng của hai sao quá tương phản nên liên tục khắc chế nhau, mà tùy hoàn cảnh kết cuộc có thể hoàn toàn trái ngược.</t>
+  </si>
+  <si>
+    <t>Đó là lý do tại sao Tử Tham  Dậu cũng là cách của nhiều bậc chân tu, coi thường mọi thú vui của đời sống.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Đa tài đa nghệ, học hỏi rất nhanh, kiến thức phong phú, ngôn ngữ có phong cách nho nhã, thân thiết với nhiều người, xử sự khéo léọ Nếu sống đời buông thả thì đáng gọi là tay chơi. Nếu sống đời ẩn dật lại đáng gọi là bậc chân tu.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Thiếu tính nhẫn nại, thiếu khả năng chịu đựng thất bại, nhiều chủ kiến, (thường) tham lam hưởng thụ, dễ đổi thay ý kiến, quan điểm. Sống vô kỷ luật, qui củ, gây ra những hoàn cảnh phức tạp tự mình không giải quyết nổi, thường vì tình mà khổ lụy, đời sống thành bại khó lường.</t>
+  </si>
+  <si>
+    <t>Thái Dương là trung đẩu đế tinh, nên mặc dù thuộc nhóm sao tĩnh (Cơ Nguyệt Đồng Lương Cự Nhật ) mà vẫn có nhiều tính chất xung động, mãnh liệt như nhóm "Tử Phủ Sát Phá Tham ". Ngược lại, Thái Âm là sao nhu nhuyễn, thích sự bình lặng, làm việc gì cũng muốn đạt sự toàn mỹ, mang nhiều lãng mạn tính. Hai sao hợp lại, không khỏi có nhiều mâu thuẫn.</t>
+  </si>
+  <si>
+    <t>Sửu Mùi là hai cung mộ địa mang đặc tính bảo thủ, nên khuynh hướng đấu tranh của Thái Dương bị biến hóa, trở thành bất chợt, nhưng cá nhân vẫn hiếu thắng, cố chấp.</t>
+  </si>
+  <si>
+    <t>Thái Dương nhiều năng lực, hăng hái xông pha, trong khi Thái Âm thích sự nhàn tản, lãng mạn. Hai sao hợp lại thường có bề ngoài mềm dẻo bề trong cứng cỏi, nhưng có lúc hoàn toàn ngược lại, rất khó xác định. Thích ở vị trí thủ lãnh, nhưng rất khó đóng trọn vai trò này là vì những mâu thuẫn như đã kể.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Không tham danh lợi, thích làm việc nghĩa, thích đóng vai người hùng cứu khổn phò nguy, đầu óc thông minh, học hỏi hiểu biết nhanh.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Nhiều mâu thuẫn, nhiều khi suy nghĩ trước sau trái ngược, ý chí không cứng cỏi, tình cảm bất định. Luôn cho rằng mình hơn người khác, dễ trở thành bệnh tưởng. Hôn nhân thiếu hòa thuận, không gần gủi người thân.</t>
+  </si>
+  <si>
+    <t>Thiên Cơ trí tụê mẫn cảm, nho nhã thư sinh, dễ gây cảm tình; Cự Môn thành kiến chủ quan, cố chấp, dễ khiến người khác khó chịu. Hai sao cùng cung chế hóa nhau, kết quả là cá tính vẫn chủ quan, nhưng biết xử thế, được người yêu nhiều hơn ghét.</t>
+  </si>
+  <si>
+    <t>Mão Dậu là đào hoa địa, nên cá nhân có khuynh hướng liên quan nhiều với xã hội, có khả năng biến lạ thành quen, sinh hoạt hăng hái, xử sự nhậm lẹ. Mặc dù thỉnh thoảng ngôn ngữ bất cẩn làm kẻ khác phiền lòng, nhưng nói chung được nhiều sự yêu mến.</t>
+  </si>
+  <si>
+    <t>Chỉ tiếc là thiếu sự nhẫn nại, nên mặc dù bỏ nhiều năng lực và sáng kiến, ít khi được kết quả tương xứng, có tiếng mà không có miếng, ngay cả khi thành công cũng thường là dọn cỗ cho người còn mình chẳng được hưởng bao nhiêu.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Quyết định nhanh chóng, trí tuệ mẫn cảm, biết chịu đựng khó khăn, làm việc tận lực, biết lẽ tiến thối, liên tục học hỏi, quân bình tình cảm và lý trí. Nếu theo các nghề doanh thương, buôn bán thì rất dễ thành công lớn, vì có sự ứng hợp với cách "Cự Cơ Mão Dậu".</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Cá tính bướng bỉnh, sinh cường hiếu thắng, dễ mắc vào vòng thị phi, đời sống tình cảm không được ổn định.</t>
+  </si>
+  <si>
+    <t>Cả hai sao đều thuộc Thủỵ Chỉ cùng cung tại Tý Ngọ, thuộc "đào hao địa". Cá nhân ôn nhu, u mặc, đa tình. Ước vọng cao, nhiều cơ hội đi lại, nhiều nhân duyên kỳ diệu, lịch duyệt phong phú. Thiên đồng chủ phúc, Thái Âm chủ điền trạch, nên bất luận vượng hãm nhất định không sợ thiếu ăn thiếu mặc. Từ nhỏ đã được yêu quí. Tóm lại phúc phận tốt. Nhưng nếu ở Ngọ không bằng Tý vì Ngọ là chốn hãm của Thái Âm, nên ảnh hưởng lây Thiên Đồng, phần may mắn không thể bằng cung Tý được.</t>
+  </si>
+  <si>
+    <t>Về mặt xử thế, không hay cạnh tranh với người, nên có nhiều người thương, ít kẻ ghét.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Thông minh hiếu học, đa tài đa nghệ. Phong thái mềm dẻo, không tranh dành hơn thua với người. Có ý muốn phục vụ, được thân nhân bằng hữu ưa thích. Dễ đạt hạnh phúc.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Thiếu uy, quá dễ tin người, nhận xét sự kiện hay sai lầm. Thiếu khả năng quyết định, hay ỷ lại kẻ khác. Trốn tránh sự thật đau lòng, mơ mộng quá nhiều. Không chịu nổi hoàn cảnh khó khăn. Hay dính líu đến những hoàn cảnh tình cảm rắc rối.</t>
+  </si>
+  <si>
+    <t>Lúc thiếu thời, công danh trắc trở, tài lộc tụ tán thất thường, nhưng từ ngoài ba mươi tuổi trở đi, chắc chắn là được hưởng phú qúy song toàn và càng già lại càng giàu có.</t>
+  </si>
+  <si>
+    <t>Mùi cùng là âm Thổ mộ cung, thiếu niên chỉ tích tụ kinh nghiệm mà khó phát huy khả năng. Từ trung niên trở đi, nhờ kiến thức có sẵn, cộng thêm may mắn mới tạo thành sự nghiệp, vì thế mới có câu "Vũ Tham bất phát thiếu niên nhân "</t>
+  </si>
+  <si>
+    <t>Vũ khúc chủ sự uy nghiêm, Tham Lang chủ sự buông thả. Hợp nhất là nghề buôn bán, nghệ sĩ trình diễn v.v...Nhất định không hợp với các nghề như thầy giáo, bác sĩ, nhà văn v.v...</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Biết sống hòa với người, nhiều khả năng, biết thu nhận kinh nghiệm trải qua trong đời sống, dám bỏ cũ theo mới, không ngại gian lao khốn khó, dám làm dám chịu.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Tâm tính cô độc, xem mình quá cao nên hay bất mãn, đời sống không qui củ, tình cảm thay đổi luôn luôn, thiếu tính nhẫn nại, thích tranh cường háo thắng, không chịu dưới tay kẻ khác. Dù có đạt mọi điều kiện mong muốn, vẫn vì ham muốn nhiều thú vui mà không tìm được bình an.</t>
+  </si>
+  <si>
+    <t>Thái Dương là biểu hiệu của ánh sáng, Cự Môn là ám tinh như mây che ánh sáng, đứng cùng với Thái Dương có tác dụng cản ngăn những đặc sắc của Thái Dương.</t>
+  </si>
+  <si>
+    <t>Hai sao cùng cung ở Dần Thân. Xét về thời gian thì Dần trời chưa sáng, Thân trời đã ngã về chiều, Thái Dương không đủ sức mạnh vượt thắng ảnh hưởng của Cự Môn, nên hai sao cùng cung gây ra tình trạng bất toàn. Nếu thành đạt tất phải có chuyện không ổn trong gia đình, như vợ chồng bất hòa, hoặc sức khỏe suy yếu, hoặc con cái bất hiếu v.v.. Cá nhân vẫn có thể đạt công danh, hạnh phúc, nhưng không có đủ khả năng và may mắn để đối phó với những khó khăn, nên công danh hạnh phúc bao năm đạt được chỉ cần gặp một vài chuyện không may nho nhỏ là có thể vỡ tan bất cứ lúc nào.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Tính khí cương cường, dũng cảm. Có tài miệng lưỡi, mưu trí, nhờ đó có khi biến họa thành may, biết nắm thời cơ. Có khả năng lãnh đạo.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Khá bướng bỉnh, háo thắng. Suy tính chuyện ngoài tầm tay. Tham vọng lớn, lại quá chủ quan, nên khó đạt thành công theo ý muốn.</t>
+  </si>
+  <si>
+    <t>Chỉ đồng cung tại Thìn Tuất, là đất miếu vượng của hai sao. Nên do ảnh hưởng tốt của Thiên Cơ mà có đầu óc mưu cơ, do ảnh hưởng tốt của Thiên Lương mà có sự quan tâm đến bối cảnh xung quanh, muốn phục vụ, làm lợi cho kẻ khác. Vì Thìn Tuất là "thiên la địa võng", lại là mộ địa, nên đời sống có nguyên tắc. Nếu hoàn cảnh thuận lợi, có thể là cộng sự viên đắc lực cho lãnh tụ, tài ba hoặc trở thành bậc hiền nhân danh sĩ.</t>
+  </si>
+  <si>
+    <t>Nói chung gặp nhiều may mắn, dễ đạt thành công về vật chất cũng như tình cảm. Nhưng tham vọng rất cao nên ngay cả khi thành công cũng khó bằng lòng với hoàn cảnh của mình.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Tốt bụng, thông minh, chịu học hỏi, xử thế hòa nhã với mọi ngườị Có thủy có chung, có khả năng đảm nhận trọng trách (miễn là không đòi hỏi ứng biến nhậm lẹ ).</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Tham vọng quá cao, nên dễ trở thành trí xảo. Nhiều tình cảm nên hay dính líu vào những hoàn cảnh phức tạp, khó tháo gỡ. Nếu gặp quá nhiều cảnh ngoài ý muốn, rất có thể trở thành người vô cùng giả dối.</t>
+  </si>
+  <si>
+    <t>Làm mạnh thêm sắc thái thị phi khẩu thiệt, nhưng đồng thời cũng làm mạnh thêm tính chất phục vụ công chúng, vì thế rất nên theo các ngành dịch vụ, công tác xã hội,giáo dục, truyền bá, có thể thành nhân vật lãnh đạo</t>
+  </si>
+  <si>
+    <t>Hai sao chỉ cùng cung tại Sửu Mùi, là mộ địa, biểu tượng sự bảo thủ, lại cùng tĩnh diệu, chủ sự bình hòa, không mang tham vọng lớn. Cá tính thiếu chuyên nhất, nên khó phát huy khả năng, thường chỉ đạt mức trung bình về mọi mặt.</t>
+  </si>
+  <si>
+    <t>Sửu Mùi là vị trí hãm của cả hai sao. Thiên đồng hãm gây ra khuynh hướng thay đổi đường lối không đúng lúc; Cự Môn hãm gây ra khuynh hướng hay lo nghĩ vẩn vơ. Cá nhân có hai mặt: Bên ngoài là sự xung động, bên trong là sự cô độc không tìm được người chia sẻ.</t>
+  </si>
+  <si>
+    <t>Cách xử sự không được phân minh, rất dễ khiến người khác hiểu lầm. Hay nhất là yên phận thủ thường thì đời sống có thể ổn cố bình an.</t>
+  </si>
+  <si>
+    <t>Ưu điểm: Hầu hết đều có tâm lý bằng lòng với thực tại, ít tham lam, không tranh dành với kẻ khác. Đối xử dung hòa với mọi người.</t>
+  </si>
+  <si>
+    <t>Khuyết điểm: Nhiều mơ ước ấu trĩ. Thiếu tự tin, không dám biểu lộ quan điểm riêng của mình. Cách suy nghĩ cũng như hành động đều bất định. Lý trí yếu, không đủ kềm hãm con tim; dễ bị thua thiệt trong tình cảm. Thiếu khả năng lãnh đạo, điều hợp. Không thể đảm nhận việc quan trọng.</t>
   </si>
 </sst>
 </file>
@@ -17186,7 +17363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -17194,341 +17371,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="74">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="41">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -18216,10 +18066,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:D5575"/>
+  <dimension ref="A2:G5589"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5558" workbookViewId="0">
-      <selection activeCell="I5570" sqref="I5570"/>
+    <sheetView tabSelected="1" topLeftCell="A5588" workbookViewId="0">
+      <selection activeCell="L5588" sqref="L5588"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21915,7 +21765,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="463" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
         <v>591</v>
       </c>
@@ -21923,7 +21773,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="464" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>592</v>
       </c>
@@ -30371,7 +30221,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="1520" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1520" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1520" s="1" t="s">
         <v>1627</v>
       </c>
@@ -62766,7 +62616,7 @@
         <v>5607</v>
       </c>
     </row>
-    <row r="5569" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="5569" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5569" s="1" t="s">
         <v>5602</v>
       </c>
@@ -62774,7 +62624,7 @@
         <v>5607</v>
       </c>
     </row>
-    <row r="5570" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="5570" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5570" s="1" t="s">
         <v>5603</v>
       </c>
@@ -62782,7 +62632,7 @@
         <v>5607</v>
       </c>
     </row>
-    <row r="5571" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="5571" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5571" s="1" t="s">
         <v>5604</v>
       </c>
@@ -62790,7 +62640,7 @@
         <v>5607</v>
       </c>
     </row>
-    <row r="5572" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="5572" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5572" s="1" t="s">
         <v>5605</v>
       </c>
@@ -62798,7 +62648,7 @@
         <v>5607</v>
       </c>
     </row>
-    <row r="5573" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="5573" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5573" s="1" t="s">
         <v>5606</v>
       </c>
@@ -62806,7 +62656,7 @@
         <v>5607</v>
       </c>
     </row>
-    <row r="5574" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5574" s="1" t="s">
         <v>5622</v>
       </c>
@@ -62814,95 +62664,357 @@
         <v>5623</v>
       </c>
     </row>
-    <row r="5575" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="5575" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A5575" s="1" t="s">
         <v>5624</v>
       </c>
       <c r="B5575" s="1" t="s">
         <v>5625</v>
       </c>
+    </row>
+    <row r="5576" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5576" s="1" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B5576" s="1" t="s">
+        <v>5706</v>
+      </c>
+      <c r="C5576" s="1" t="s">
+        <v>5707</v>
+      </c>
+      <c r="D5576" s="1" t="s">
+        <v>5708</v>
+      </c>
+      <c r="E5576" s="1"/>
+      <c r="F5576" s="3"/>
+    </row>
+    <row r="5577" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5577" s="1" t="s">
+        <v>3269</v>
+      </c>
+      <c r="B5577" s="1" t="s">
+        <v>5709</v>
+      </c>
+      <c r="C5577" s="1" t="s">
+        <v>5710</v>
+      </c>
+      <c r="D5577" s="1" t="s">
+        <v>5711</v>
+      </c>
+      <c r="E5577" s="1" t="s">
+        <v>5712</v>
+      </c>
+      <c r="F5577" s="1" t="s">
+        <v>5713</v>
+      </c>
+    </row>
+    <row r="5578" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5578" s="1" t="s">
+        <v>3288</v>
+      </c>
+      <c r="B5578" s="1" t="s">
+        <v>5714</v>
+      </c>
+      <c r="C5578" s="1" t="s">
+        <v>5715</v>
+      </c>
+      <c r="D5578" s="1" t="s">
+        <v>5716</v>
+      </c>
+      <c r="E5578" s="1" t="s">
+        <v>5717</v>
+      </c>
+      <c r="F5578" s="1" t="s">
+        <v>5718</v>
+      </c>
+      <c r="G5578" s="1" t="s">
+        <v>5719</v>
+      </c>
+    </row>
+    <row r="5579" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5579" s="1" t="s">
+        <v>3293</v>
+      </c>
+      <c r="B5579" s="1" t="s">
+        <v>5720</v>
+      </c>
+      <c r="C5579" s="1"/>
+      <c r="D5579" s="1"/>
+      <c r="E5579" s="1"/>
+      <c r="F5579" s="3"/>
+    </row>
+    <row r="5580" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5580" s="1" t="s">
+        <v>3254</v>
+      </c>
+      <c r="B5580" s="1" t="s">
+        <v>5721</v>
+      </c>
+      <c r="C5580" s="1" t="s">
+        <v>5722</v>
+      </c>
+      <c r="D5580" s="1" t="s">
+        <v>5723</v>
+      </c>
+      <c r="E5580" s="1" t="s">
+        <v>5724</v>
+      </c>
+      <c r="F5580" s="1" t="s">
+        <v>5725</v>
+      </c>
+      <c r="G5580" s="1" t="s">
+        <v>5726</v>
+      </c>
+    </row>
+    <row r="5581" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5581" s="1" t="s">
+        <v>3243</v>
+      </c>
+      <c r="B5581" s="1" t="s">
+        <v>5727</v>
+      </c>
+      <c r="C5581" s="1" t="s">
+        <v>5728</v>
+      </c>
+      <c r="D5581" s="1" t="s">
+        <v>5729</v>
+      </c>
+      <c r="E5581" s="1" t="s">
+        <v>5730</v>
+      </c>
+      <c r="F5581" s="1" t="s">
+        <v>5731</v>
+      </c>
+    </row>
+    <row r="5582" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5582" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B5582" s="1" t="s">
+        <v>5732</v>
+      </c>
+      <c r="C5582" s="1" t="s">
+        <v>5733</v>
+      </c>
+      <c r="D5582" s="1" t="s">
+        <v>5734</v>
+      </c>
+      <c r="E5582" s="1" t="s">
+        <v>5735</v>
+      </c>
+      <c r="F5582" s="1" t="s">
+        <v>5736</v>
+      </c>
+    </row>
+    <row r="5583" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5583" s="1" t="s">
+        <v>3256</v>
+      </c>
+      <c r="B5583" s="1" t="s">
+        <v>5737</v>
+      </c>
+      <c r="C5583" s="1" t="s">
+        <v>5738</v>
+      </c>
+      <c r="D5583" s="1" t="s">
+        <v>5739</v>
+      </c>
+      <c r="E5583" s="1" t="s">
+        <v>5740</v>
+      </c>
+      <c r="F5583" s="1" t="s">
+        <v>5741</v>
+      </c>
+    </row>
+    <row r="5584" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5584" s="1" t="s">
+        <v>3284</v>
+      </c>
+      <c r="B5584" s="1" t="s">
+        <v>5742</v>
+      </c>
+      <c r="C5584" s="1" t="s">
+        <v>5743</v>
+      </c>
+      <c r="D5584" s="1" t="s">
+        <v>5744</v>
+      </c>
+      <c r="E5584" s="1" t="s">
+        <v>5745</v>
+      </c>
+      <c r="F5584" s="1"/>
+    </row>
+    <row r="5585" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5585" s="1" t="s">
+        <v>3276</v>
+      </c>
+      <c r="B5585" s="1" t="s">
+        <v>5746</v>
+      </c>
+      <c r="C5585" s="1" t="s">
+        <v>5747</v>
+      </c>
+      <c r="D5585" s="1" t="s">
+        <v>5748</v>
+      </c>
+      <c r="E5585" s="1" t="s">
+        <v>5749</v>
+      </c>
+      <c r="F5585" s="1" t="s">
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="5586" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5586" s="1" t="s">
+        <v>3267</v>
+      </c>
+      <c r="B5586" s="1" t="s">
+        <v>5751</v>
+      </c>
+      <c r="C5586" s="1" t="s">
+        <v>5752</v>
+      </c>
+      <c r="D5586" s="1" t="s">
+        <v>5753</v>
+      </c>
+      <c r="E5586" s="1" t="s">
+        <v>5754</v>
+      </c>
+      <c r="F5586" s="1"/>
+      <c r="G5586" s="1"/>
+    </row>
+    <row r="5587" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5587" s="1" t="s">
+        <v>3258</v>
+      </c>
+      <c r="B5587" s="1" t="s">
+        <v>5755</v>
+      </c>
+      <c r="C5587" s="1" t="s">
+        <v>5756</v>
+      </c>
+      <c r="D5587" s="1" t="s">
+        <v>5757</v>
+      </c>
+      <c r="E5587" s="1" t="s">
+        <v>5758</v>
+      </c>
+      <c r="F5587" s="1"/>
+      <c r="G5587" s="1"/>
+    </row>
+    <row r="5588" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5588" s="1" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B5588" s="1" t="s">
+        <v>5759</v>
+      </c>
+      <c r="C5588" s="1" t="s">
+        <v>5760</v>
+      </c>
+      <c r="D5588" s="1" t="s">
+        <v>5761</v>
+      </c>
+      <c r="E5588" s="1" t="s">
+        <v>5762</v>
+      </c>
+      <c r="F5588" s="1" t="s">
+        <v>5763</v>
+      </c>
+      <c r="G5588" s="1" t="s">
+        <v>5764</v>
+      </c>
+    </row>
+    <row r="5589" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5589" s="1"/>
+      <c r="D5589" s="1"/>
+      <c r="E5589" s="1"/>
+      <c r="F5589" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:D5575" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
   <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="39" priority="108"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86:A143">
-    <cfRule type="duplicateValues" dxfId="37" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="79"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A145">
-    <cfRule type="duplicateValues" dxfId="35" priority="82"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A146:A209">
-    <cfRule type="duplicateValues" dxfId="33" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1808:A2666">
+    <cfRule type="duplicateValues" dxfId="33" priority="47733"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2762:A2823">
-    <cfRule type="duplicateValues" dxfId="32" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="40"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3928:A4406 A210:A1631 A2:A24 A26:A85 A144 A1803:A1807 A2672:A2761 A2824:A3124 A5471:A1048576">
-    <cfRule type="duplicateValues" dxfId="31" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="119"/>
+  <conditionalFormatting sqref="A3928:A4406 A210:A1631 A2:A24 A26:A85 A144 A1803:A1807 A2672:A2761 A2824:A3124 A5471:A5575 A5590:A1048576">
+    <cfRule type="duplicateValues" dxfId="31" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4222">
-    <cfRule type="duplicateValues" dxfId="29" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4992:A5470">
-    <cfRule type="duplicateValues" dxfId="27" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3365:B3367 A3364 A3368 A3391:A3392 A3991:A3992 A3995:A3996 A4015:A4016 A3467:A3468 A3471:A3472 A3495:A3496 A3939:A3940 A3943:A3944 A3963:A3964 A3415:A3416 A3419:A3420 A3443:A3444 A3835:A3836 A3839:A3840 A3859:A3860 A3571:A3572 A3575:A3576 A3599:A3600 A3887:A3888 A3891:A3892 A3911:A3912 A3353:B3353 A3351:A3352 A3979:A3980 A3928 A3823:A3824 A3455:A3456 A3403:A3404 A3563:A3564 A3875:A3876 A3371:A3372 A3999:A4000 A3947:A3948 A3475:A3476 A3843:A3844 A3423:A3424 A3895:A3896 A3579:A3580 A4359 A4119 A4335 A4287 A4095 A4311 A4167 A4075 A4363 A4123 A4339 A4291 A4099 A4315 A4171 A4083 A4371 A4347 A4131 A4299 A4323 A4107 A4179 A4079 A4367 A4343 A4127 A4295 A4103 A4319 A4175 A4072:B4072 A4360:B4360 A4336:B4336 A4120:B4120 A4288:B4288 A4096:B4096 A4312:B4312 A4168:B4168 A4076:B4076 A4364:B4364 A4124:B4124 A4292:B4292 A4340:B4340 A4100:B4100 A4316:B4316 A4172:B4172 A4084:B4084 A4372:B4372 A4132:B4132 A4300:B4300 A4348:B4348 A4324:B4324 A4108:B4108 A4180:B4180 A4080:B4080 A4368:B4368 A4344:B4344 A4128:B4128 A4296:B4296 A4104:B4104 A4320:B4320 A4176:B4176 A3360:A3361 A3987:A3989 A3935:A3937 A3463:A3465 A3831:A3833 A3411:A3413 A3883:A3885 A3993:B3994 A3941:B3942 A3469:B3470 A3837:B3838 A3417:B3418 A3889:B3890 A3573:B3574 A3369:B3370 A3997:B3998 A3945:B3946 A3841:B3842 A3473:B3474 A3421:B3422 A3893:B3894 A3577:B3578 A3393:B3402 A4017:B4018 A3965:B3978 A3861:B3874 A3445:B3454 A3913:B3927 A3601:B3602 A3362:B3363 A3990:B3990 A3938:B3938 A3834:B3834 A3466:B3466 A3414:B3414 A3886:B3886 A3570:B3570 A3981:B3981 A3929:B3929 A3457:B3457 A3825:B3825 A3405:B3405 A3877:B3877 A3565:B3565 A3373:B3373 A4001:B4001 A3949:B3949 A3477:B3477 A3845:B3845 A3897:B3897 A3425:B3425 A3581:B3581 A3355:B3359 A3354 A3983:B3986 A3982 A3931:B3934 A3930 A3827:B3830 A3826 A3459:B3462 A3458 A3407:B3410 A3406 A3879:B3882 A3878 A3566:A3569 A3375:B3390 A3374 A4003:B4014 A4002 A3951:B3962 A3950 A3479:B3494 A3478 A3847:B3858 A3846 A3427:B3442 A3426 A3899:B3910 A3898 A3583:B3598 A3582 A4085 A4373 A4349 A4133 A4301 A4109 A4325 A4181 A4081 A4369 A4345 A4129 A4297 A4105 A4321 A4177 A4073 A4361 A4337 A4121 A4289 A4097 A4313 A4169 A4077 A4365 A4341 A4125 A4293 A4101 A4317 A4173 A4074:B4074 A4362:B4362 A4338:B4338 A4122:B4122 A4290:B4290 A4098:B4098 A4314:B4314 A4170:B4170 A4078:B4078 A4366:B4366 A4342:B4342 A4126:B4126 A4294:B4294 A4102:B4102 A4318:B4318 A4174:B4174 A4086:B4094 A4374:B4382 A4350:B4358 A4134:B4166 A4302:B4310 A4110:B4118 A4326:B4334 A4182:B4190 A4082:B4082 A4370:B4370 A4346:B4346 A4130:B4130 A4298:B4298 A4106:B4106 A4322:B4322 A4178:B4178 A3703:B3706 A3651:B3654 A3690:B3690 A3669:B3670 A3683:A3684 A3735:A3736 A4051:A4052 A3631:A3632 A4215 A4239 A4383 A4191 A4219 A4243 A4387 A4195 A4227 A4251 A4395 A4203 A4223 A4247 A4391 A4199 A4063:A4071 A3663:A3668 A3715:A3720 A4027:A4032 A3611:A3616 A3687:A3689 A3739:A3741 A4055:A4057 A3635:A3637 A3655:A3661 A3707:A3713 A4019:A4025 A3603:A3609 A3691:A3693 A3743:A3745 A4059:A4061 A3639:A3641 A3671:A3673 A3723:A3725 A4035:A4037 A3619:A3621 A3695:A3702 A3747:A3754 A3643:A3650 A3742:B3742 A3638:B3638 A4058:B4058 A3610:B3610 A3662:B3662 A3714:B3714 A4026:B4026 A3694:B3694 A3746:B3746 A4062:B4062 A3642:B3642 A3622:B3630 A3721:B3722 A4033:B4034 A3617:B3618 A3674:B3682 A3726:B3734 A4038:B4050 A3685:B3686 A3737:B3738 A4053:B4054 A3633:B3634 A5471:B1048576 A4384:B4386 A4216:B4218 A4240:B4242 A4192:B4194 A4220:B4222 A4244:B4246 A4388:B4390 A4196:B4198 A4228:B4238 A4252:B4286 A4396:B4406 A4204:B4214 A4224:B4226 A4248:B4250 A4392:B4394 A4200:B4202 A3497:B3499 A3501:B3501 A3500 A3544 A3540 A3508 A3532 A3504 A3782:B3782 A3545:B3545 A3541:B3541 A3505:B3505 A3533:B3533 A3509:B3509 A3755:B3761 A3763:B3765 A3762 A3803:B3805 A3802 A3771:B3777 A3770 A3795:B3797 A3794 A3767:B3769 A3766 A3799:B3801 A3798 A3503:B3503 A3502 A3543:B3543 A3542 A3511:B3513 A3510 A3535:B3537 A3534 A3507:B3507 A3506 A3539:B3539 A3538 A3519:A3521 A3523:A3525 A3546:A3549 A3514:A3517 A3783:A3785 A3787:A3789 A3806:A3809 A3778:A3781 A3522:B3522 A3526:B3531 A3518:B3518 A3550:B3562 A3786:B3786 A3790:B3793 A3810:B3822 A2:B3350">
-    <cfRule type="duplicateValues" dxfId="25" priority="14"/>
+  <conditionalFormatting sqref="A1:B5575 A5590:B1048576">
+    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3365:B3367 A3364 A3368 A3391:A3392 A3991:A3992 A3995:A3996 A4015:A4016 A3467:A3468 A3471:A3472 A3495:A3496 A3939:A3940 A3943:A3944 A3963:A3964 A3415:A3416 A3419:A3420 A3443:A3444 A3835:A3836 A3839:A3840 A3859:A3860 A3571:A3572 A3575:A3576 A3599:A3600 A3887:A3888 A3891:A3892 A3911:A3912 A3353:B3353 A3351:A3352 A3979:A3980 A3928 A3823:A3824 A3455:A3456 A3403:A3404 A3563:A3564 A3875:A3876 A3371:A3372 A3999:A4000 A3947:A3948 A3475:A3476 A3843:A3844 A3423:A3424 A3895:A3896 A3579:A3580 A4359 A4119 A4335 A4287 A4095 A4311 A4167 A4075 A4363 A4123 A4339 A4291 A4099 A4315 A4171 A4083 A4371 A4347 A4131 A4299 A4323 A4107 A4179 A4079 A4367 A4343 A4127 A4295 A4103 A4319 A4175 A4072:B4072 A4360:B4360 A4336:B4336 A4120:B4120 A4288:B4288 A4096:B4096 A4312:B4312 A4168:B4168 A4076:B4076 A4364:B4364 A4124:B4124 A4292:B4292 A4340:B4340 A4100:B4100 A4316:B4316 A4172:B4172 A4084:B4084 A4372:B4372 A4132:B4132 A4300:B4300 A4348:B4348 A4324:B4324 A4108:B4108 A4180:B4180 A4080:B4080 A4368:B4368 A4344:B4344 A4128:B4128 A4296:B4296 A4104:B4104 A4320:B4320 A4176:B4176 A3360:A3361 A3987:A3989 A3935:A3937 A3463:A3465 A3831:A3833 A3411:A3413 A3883:A3885 A3993:B3994 A3941:B3942 A3469:B3470 A3837:B3838 A3417:B3418 A3889:B3890 A3573:B3574 A3369:B3370 A3997:B3998 A3945:B3946 A3841:B3842 A3473:B3474 A3421:B3422 A3893:B3894 A3577:B3578 A3393:B3402 A4017:B4018 A3965:B3978 A3861:B3874 A3445:B3454 A3913:B3927 A3601:B3602 A3362:B3363 A3990:B3990 A3938:B3938 A3834:B3834 A3466:B3466 A3414:B3414 A3886:B3886 A3570:B3570 A3981:B3981 A3929:B3929 A3457:B3457 A3825:B3825 A3405:B3405 A3877:B3877 A3565:B3565 A3373:B3373 A4001:B4001 A3949:B3949 A3477:B3477 A3845:B3845 A3897:B3897 A3425:B3425 A3581:B3581 A3355:B3359 A3354 A3983:B3986 A3982 A3931:B3934 A3930 A3827:B3830 A3826 A3459:B3462 A3458 A3407:B3410 A3406 A3879:B3882 A3878 A3566:A3569 A3375:B3390 A3374 A4003:B4014 A4002 A3951:B3962 A3950 A3479:B3494 A3478 A3847:B3858 A3846 A3427:B3442 A3426 A3899:B3910 A3898 A3583:B3598 A3582 A4085 A4373 A4349 A4133 A4301 A4109 A4325 A4181 A4081 A4369 A4345 A4129 A4297 A4105 A4321 A4177 A4073 A4361 A4337 A4121 A4289 A4097 A4313 A4169 A4077 A4365 A4341 A4125 A4293 A4101 A4317 A4173 A4074:B4074 A4362:B4362 A4338:B4338 A4122:B4122 A4290:B4290 A4098:B4098 A4314:B4314 A4170:B4170 A4078:B4078 A4366:B4366 A4342:B4342 A4126:B4126 A4294:B4294 A4102:B4102 A4318:B4318 A4174:B4174 A4086:B4094 A4374:B4382 A4350:B4358 A4134:B4166 A4302:B4310 A4110:B4118 A4326:B4334 A4182:B4190 A4082:B4082 A4370:B4370 A4346:B4346 A4130:B4130 A4298:B4298 A4106:B4106 A4322:B4322 A4178:B4178 A3703:B3706 A3651:B3654 A3690:B3690 A3669:B3670 A3683:A3684 A3735:A3736 A4051:A4052 A3631:A3632 A4215 A4239 A4383 A4191 A4219 A4243 A4387 A4195 A4227 A4251 A4395 A4203 A4223 A4247 A4391 A4199 A4063:A4071 A3663:A3668 A3715:A3720 A4027:A4032 A3611:A3616 A3687:A3689 A3739:A3741 A4055:A4057 A3635:A3637 A3655:A3661 A3707:A3713 A4019:A4025 A3603:A3609 A3691:A3693 A3743:A3745 A4059:A4061 A3639:A3641 A3671:A3673 A3723:A3725 A4035:A4037 A3619:A3621 A3695:A3702 A3747:A3754 A3643:A3650 A3742:B3742 A3638:B3638 A4058:B4058 A3610:B3610 A3662:B3662 A3714:B3714 A4026:B4026 A3694:B3694 A3746:B3746 A4062:B4062 A3642:B3642 A3622:B3630 A3721:B3722 A4033:B4034 A3617:B3618 A3674:B3682 A3726:B3734 A4038:B4050 A3685:B3686 A3737:B3738 A4053:B4054 A3633:B3634 A5471:B5575 A4384:B4386 A4216:B4218 A4240:B4242 A4192:B4194 A4220:B4222 A4244:B4246 A4388:B4390 A4196:B4198 A4228:B4238 A4252:B4286 A4396:B4406 A4204:B4214 A4224:B4226 A4248:B4250 A4392:B4394 A4200:B4202 A3497:B3499 A3501:B3501 A3500 A3544 A3540 A3508 A3532 A3504 A3782:B3782 A3545:B3545 A3541:B3541 A3505:B3505 A3533:B3533 A3509:B3509 A3755:B3761 A3763:B3765 A3762 A3803:B3805 A3802 A3771:B3777 A3770 A3795:B3797 A3794 A3767:B3769 A3766 A3799:B3801 A3798 A3503:B3503 A3502 A3543:B3543 A3542 A3511:B3513 A3510 A3535:B3537 A3534 A3507:B3507 A3506 A3539:B3539 A3538 A3519:A3521 A3523:A3525 A3546:A3549 A3514:A3517 A3783:A3785 A3787:A3789 A3806:A3809 A3778:A3781 A3522:B3522 A3526:B3531 A3518:B3518 A3550:B3562 A3786:B3786 A3790:B3793 A3810:B3822 A2:B3350 A5590:B1048576">
+    <cfRule type="duplicateValues" dxfId="24" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4407:B5099 A5101:B5470 A5100">
-    <cfRule type="duplicateValues" dxfId="24" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B86:B143">
-    <cfRule type="duplicateValues" dxfId="21" priority="20"/>
     <cfRule type="duplicateValues" dxfId="20" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145">
-    <cfRule type="duplicateValues" dxfId="19" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B146:B209">
-    <cfRule type="duplicateValues" dxfId="17" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1723">
+    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1808:B2666">
+    <cfRule type="duplicateValues" dxfId="13" priority="47734"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2762:B2823">
-    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3929 B2:B24 B26:B85 B144 B1803:B1807 B2672:B2761 B2824:B3124 B210:B1631 B4017:B4018 B3993:B3994 B3997:B3998 B3990 B3938 B3941:B3942 B3945:B3946 B3965:B3978 B4001 B3981 B3949 B4072 B4360 B4336 B4120 B4288 B4096 B4312 B4168 B4076 B4364 B4124 B4292 B4340 B4100 B4316 B4172 B4084 B4372 B4132 B4300 B4348 B4324 B4108 B4180 B4080 B4368 B4344 B4128 B4296 B4104 B4320 B4176 B3983:B3986 B3931:B3934 B4003:B4014 B3951:B3962 B4074 B4362 B4338 B4122 B4290 B4098 B4314 B4170 B4078 B4366 B4342 B4126 B4294 B4102 B4318 B4174 B4086:B4094 B4374:B4382 B4350:B4358 B4134:B4166 B4302:B4310 B4110:B4118 B4326:B4334 B4182:B4190 B4082 B4370 B4346 B4130 B4298 B4106 B4322 B4178 B4058 B4026 B4062 B4038:B4050 B4033:B4034 B4053:B4054 B5471:B1048576 B4384:B4386 B4216:B4218 B4240:B4242 B4192:B4194 B4220:B4222 B4244:B4246 B4388:B4390 B4196:B4198 B4228:B4238 B4252:B4286 B4396:B4406 B4204:B4214 B4224:B4226 B4248:B4250 B4392:B4394 B4200:B4202">
-    <cfRule type="duplicateValues" dxfId="15" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="27"/>
+  <conditionalFormatting sqref="B3141">
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3929 B2:B24 B26:B85 B144 B1803:B1807 B2672:B2761 B2824:B3124 B210:B1631 B4017:B4018 B3993:B3994 B3997:B3998 B3990 B3938 B3941:B3942 B3945:B3946 B3965:B3978 B4001 B3981 B3949 B4072 B4360 B4336 B4120 B4288 B4096 B4312 B4168 B4076 B4364 B4124 B4292 B4340 B4100 B4316 B4172 B4084 B4372 B4132 B4300 B4348 B4324 B4108 B4180 B4080 B4368 B4344 B4128 B4296 B4104 B4320 B4176 B3983:B3986 B3931:B3934 B4003:B4014 B3951:B3962 B4074 B4362 B4338 B4122 B4290 B4098 B4314 B4170 B4078 B4366 B4342 B4126 B4294 B4102 B4318 B4174 B4086:B4094 B4374:B4382 B4350:B4358 B4134:B4166 B4302:B4310 B4110:B4118 B4326:B4334 B4182:B4190 B4082 B4370 B4346 B4130 B4298 B4106 B4322 B4178 B4058 B4026 B4062 B4038:B4050 B4033:B4034 B4053:B4054 B5471:B5575 B4384:B4386 B4216:B4218 B4240:B4242 B4192:B4194 B4220:B4222 B4244:B4246 B4388:B4390 B4196:B4198 B4228:B4238 B4252:B4286 B4396:B4406 B4204:B4214 B4224:B4226 B4248:B4250 B4392:B4394 B4200:B4202 B5590:B1048576">
+    <cfRule type="duplicateValues" dxfId="9" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4992:B5099 B5101:B5470">
-    <cfRule type="duplicateValues" dxfId="13" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1723">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3141">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1808:A2666">
-    <cfRule type="duplicateValues" dxfId="6" priority="47732"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1808:B2666">
-    <cfRule type="duplicateValues" dxfId="5" priority="47733"/>
+  <conditionalFormatting sqref="A5576:B5589">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -71433,15 +71545,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A586:A1064">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1064">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B586:B1064">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LuanNoBoc.xlsx
+++ b/LuanNoBoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\App_Tuvi\LuanGiaiTuViBacPhai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieuxnk1\Documents\App_tu_vi-main\LuanGiaiTuViBacPhai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707D1978-F468-4620-80BE-4DB9DEBDA64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BFFA59-FC98-42D1-A5A2-4791855FA5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10695" uniqueCount="4451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10695" uniqueCount="4452">
   <si>
     <t>Vũ Khúc và Tham Lang đồng cung tại Mùi</t>
   </si>
@@ -13386,6 +13386,9 @@
   </si>
   <si>
     <t>Khuyết điểm: Nhiều mơ ước ấu trĩ. Thiếu tự tin, không dám biểu lộ quan điểm riêng của mình. Cách suy nghĩ cũng như hành động đều bất định. Lý trí yếu, không đủ kềm hãm con tim; dễ bị thua thiệt trong tình cảm. Thiếu khả năng lãnh đạo, điều hợp. Không thể đảm nhận việc quan trọng.</t>
+  </si>
+  <si>
+    <t>Mang lụy vì tình, ưa việc trăng gió, bướm hoa.</t>
   </si>
 </sst>
 </file>
@@ -13436,7 +13439,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -13766,8 +13779,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:G4262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4222" workbookViewId="0">
-      <selection activeCell="C4229" sqref="C4229"/>
+    <sheetView tabSelected="1" topLeftCell="A4240" workbookViewId="0">
+      <selection activeCell="A3367" sqref="A3367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17367,7 +17380,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="451" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>493</v>
       </c>
@@ -17375,7 +17388,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="452" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>494</v>
       </c>
@@ -25823,7 +25836,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="1508" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1508" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1508" s="1" t="s">
         <v>1529</v>
       </c>
@@ -29372,7 +29385,7 @@
         <v>1947</v>
       </c>
       <c r="B1951" s="1" t="s">
-        <v>1947</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1952" spans="1:2" x14ac:dyDescent="0.25">
@@ -48016,6 +48029,9 @@
   </sheetData>
   <autoFilter ref="A2:D4261" xr:uid="{AE792A93-0F7F-4F11-B4F9-CDC032EF3078}"/>
   <dataConsolidate/>
+  <conditionalFormatting sqref="A1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -56545,15 +56561,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A586:A1064">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1064">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B586:B1064">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
